--- a/game/Resources/DB/Excel/fff.xlsx
+++ b/game/Resources/DB/Excel/fff.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,46 @@
   </si>
   <si>
     <t>age::int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex:string:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -413,7 +453,7 @@
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +463,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -434,8 +477,11 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -445,8 +491,11 @@
       <c r="C3" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -456,8 +505,11 @@
       <c r="C4" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -465,8 +517,101 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
